--- a/response_BarChart.xlsx
+++ b/response_BarChart.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13670" windowHeight="8440"/>
+    <workbookView windowWidth="20850" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0">Sheet1!$A$1:$A$12</definedName>
+    <definedName name="ExternalData_1" localSheetId="0">Sheet1!$A$1:$A$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="Visualization Experiment 2" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="C:\Users\16526\Desktop\Visualization Experiment 2.csv" delimited="0">
+    <textPr sourceFile="C:\Users\16526\Desktop\Visualization Experiment 2.csv">
       <textFields>
         <textField/>
       </textFields>
@@ -1220,10 +1220,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:A12"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1231,53 +1231,53 @@
     <col min="1" max="1" width="77.4909090909091" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
